--- a/네이버뉴스/100_test.xlsx
+++ b/네이버뉴스/100_test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>기사 제목</t>
+          <t>제목</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>기사 입력시각</t>
+          <t>날짜</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -458,12 +458,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[시사 2판4판]“상경 계획없다“</t>
+          <t>국민의힘, 이석기 가석방 결정에 "文, 헌법 수호 의지 없다"</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:49</t>
+          <t>2021.12.23 18:34</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -476,30 +476,30 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>"몇 명 째냐" 與·野 모두 인사 잡음…사과 없이 '사퇴'하면 끝?</t>
+          <t>신지예 “尹 ‘극빈층 자유’ 발언보며 ‘지지 잘했다’ 생각”</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:48</t>
+          <t>2021.12.23 18:34</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>원희룡 "尹정부, 코로나19 중증환자 병상 확보 책임질 것"</t>
+          <t>文 대통령, 백령도 방문해 장병 격려… ‘천안함 위령탑’ 참배</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:47</t>
+          <t>2021.12.23 18:34</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -512,30 +512,30 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>진중권 “윤석열 선대위 합류한 금태섭, 민주당에 큰 위협될 것”</t>
+          <t>이준석, '윤핵관' 정면 비판…'가난 발언' 윤석열 또 구설수</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:47</t>
+          <t>2021.12.23 18:34</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>원희룡 "공공건물 개조해서라도 코로나 임시병동 확보하겠다"</t>
+          <t>野, '사찰 논란' 공수처 항의 방문...김진욱 "설명자료 제출 노력"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:46</t>
+          <t>2021.12.23 18:33</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -548,52 +548,52 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>이준석 “고3당원 연설이 ‘랩’ 가사 표절? 과도한 지적”</t>
+          <t>정부, 유엔 사무국에 2030 온실가스 감축목표 제출</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:46</t>
+          <t>2021.12.23 18:31</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[사고] 2021년 데일리안 경력기자를 모집합니다</t>
+          <t>이재명 “김문기 몰랐다”에…野, 해외출장 동행 사진 추가공개</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:46</t>
+          <t>2021.12.23 18:31</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>김종인, ‘안철수 말고 김동연’…양자간 ‘호의’, 연대는 불투명</t>
+          <t>윤석열 "영부인은 호칭 쓰지 말자"… 윤건영 "영부인이 여자 홍길동도 아니고"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:46</t>
+          <t>2021.12.23 18:30</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -602,16 +602,16 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>윤석열 45.3%, 이재명 37.1%…오차범위 밖[리얼미터]</t>
+          <t>이재명, 이낙연과 전격 회동…윤석열, 호남서 민주당 직격</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:46</t>
+          <t>2021.12.23 18:30</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
@@ -620,116 +620,124 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>권성동 "김어준 아무 신뢰성 없다…왈가왈부 자체가 시간 낭비"</t>
+          <t>'이석기 가석방' 소식에…김재연 "만시지탄, 사면·복권해야"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:46</t>
+          <t>2021.12.23 18:30</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>'양자 대결' 이재명 42.0% vs 윤석열 46.9%… 리얼미터 ARS</t>
+          <t>이재명·이낙연 회동…국민의힘, 김문기와 찍은 사진 공개</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:45</t>
+          <t>2021.12.23 18:30</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>李 '조국 사과' 적절 46.6%…尹 '김종인 영입' 도움 53.2%</t>
+          <t>‘내란선동’ 이석기 가석방에 국민의힘 “‘촛불 청구서’에 발목잡혀”</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:45</t>
+          <t>2021.12.23 18:29</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>‘이재명표 입법독주’ 시작되나...與  12월 임시국회 소집키로</t>
+          <t>30% 무너진 尹 지지율에 "당·후보 정신차려야" 당내 우려 목소리 잇따라</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:45</t>
+          <t>2021.12.23 18:26</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>진중권 “尹 선대위 합류한 금태섭, 민주당에 꽤 큰 위협”</t>
+          <t>이재명·윤석열 "양도세 중과 유예" vs 청 "임기 내 없다"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:45</t>
+          <t>2021.12.23 18:26</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>[영상]D-76, 두손 잡은 이재명·이낙연…지지자 반응은 엇갈려</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:24</t>
+        </is>
+      </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>권성동 "김건희? 연예인도 아닌데 웬 관심…득표전략에 도움될때 출현"</t>
+          <t>국민의힘 “尹 ‘미래 앱’은 일자리 데이터 통합·실시간 동기화·일자리 자동 매칭되는 AI 방식”</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:44</t>
+          <t>2021.12.23 18:22</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>2</v>
@@ -738,72 +746,432 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>국민의힘 노재승 ‘가난, 검정고시’ 발언 논란... 민주당 “평범한 사람 멸시”, 노 “직책 맡기 전후 다를 것”</t>
+          <t>與 '신년 대사면'으로 탈당 인사들 품는다…'진영 총결집'</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:41</t>
+          <t>2021.12.23 18:21</t>
         </is>
       </c>
       <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
         <v>2</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>“갓, 중국서 기원” 中배우 우시쩌 발언에 서경덕 교수 “무식한 발언”</t>
+          <t>전현희 권익위원장, 적극행정 국민신청 현장간담회</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:41</t>
+          <t>2021.12.23 18:21</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>“윤석열 45.3%-이재명 37.1%…격차↓ 오차범위밖 우세”</t>
+          <t>전현희 권익위원장, 적극행정 국민신청 현장간담회</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:41</t>
+          <t>2021.12.23 18:21</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>“다자대결서 윤석열 45.3% 이재명 37.1%”</t>
+          <t>방역피해 가맹점, 카드수수료 40% 깎아준다</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:41</t>
+          <t>2021.12.23 18:21</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>State anti-corruption watchdog blasted for targeting journalists</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:41</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>이석기, 내일 가석방될 듯…김재연 “사면·복권 아니라니, 실망”</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:41</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>이재명, 19∼29세에 年 200만원…윤석열, 입시·취업 비리 신고센터 도입</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:41</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2030, 이념보다 실용 중시… 정책실종 선거에 거부감 폭발</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:40</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>이낙연 지지자들 "낙연, 사랑해요" 이재명 향해선 "전과 4범"(영상)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:40</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>표심 못 읽는 이재명·윤석열…20대 76.4% “후보 변경 가능”</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:40</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>[현장의재구성] 국민의힘 집안 싸움에…민주당은 강 건너 불구경?</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:40</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>"장병 노고에 감사"… 문 대통령, 5년 만에 백령도 방문</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:38</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>윤석열 "'극빈층 자유 몰라' 발언이 말실수?...상대당의 마타도어"</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:38</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>"다자대결서 이재명 35% 윤석열 29%"…나란히 하락 [NBS]</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:38</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>[단독]"이석기 가석방과는 별개, 박근혜 사면 가능성 현재로선 희박"</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:38</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>비호감 대선 염증에 제3지대 '꿈틀'…맹공 나선 안심연대</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:38</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>송영길, 이재명·김문기 호주 출장 논란에 "기억 안 났을 것"</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:37</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>국민의힘, 이석기 가석방 결정에 "文, 헌법 수호 의지 없다"</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:34</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>尹 '극빈층 자유' 발언에…신지예 "처음으로 지지 잘했다 생각"</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:34</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>4</v>
+      </c>
+      <c r="D36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>文 대통령, 백령도 방문해 장병 격려… ‘천안함 위령탑’ 참배</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:34</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>이준석, '윤핵관' 정면 비판…'가난 발언' 윤석열 또 구설수</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:34</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>野, '사찰 논란' 공수처 항의 방문...김진욱 "설명자료 제출 노력"</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:33</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>정부, 유엔 사무국에 2030 온실가스 감축목표 제출</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:31</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>“김문기 몰랐다”던 李, 호주 출장 동행 사진 또 나왔다</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:31</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
         <v>4</v>
       </c>
     </row>
